--- a/final_planning.xlsx
+++ b/final_planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bricepetitulb/Library/CloudStorage/OneDrive-UniversitéLibredeBruxelles/Ulb/PhD/VdE/VdE_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B7DC0F-CAF5-234F-BD6A-7006EE8D1934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD95FF17-A0F0-5344-8BF1-EF8AAF18D6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49520" yWindow="0" windowWidth="19120" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning expé" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
   <si>
     <t>Echappée/Coin du Balai</t>
   </si>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="dddd\ dd\ mmmm\ yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dddd\ dd\ mmmm\ yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -188,19 +188,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,10 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1072,43 +1072,79 @@
       <c r="C33" s="15">
         <v>44899.75</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15">
+        <v>44902.5</v>
+      </c>
+      <c r="C34" s="15">
+        <v>44902.75</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
         <v>44901.75</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C35" s="13">
         <v>44901.875</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="15">
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="15">
         <v>44914.666666666664</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C36" s="15">
         <v>44914.916666666664</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="13">
+      <c r="D36" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="15">
+        <v>44916.666666666664</v>
+      </c>
+      <c r="C37" s="15">
+        <v>44916.916666666664</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13">
         <v>44917.75</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C38" s="13">
         <v>44917.875</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1117,26 +1153,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37c45c7d-ab5f-44bc-a5e0-e5761a896314">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cc187c68-baab-4236-9dad-d06e77fa50de" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100311A83DD7B80F646B47EDEF0DD0C6956" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="ae8aed9cfb5bfcd5429a22e4028494c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37c45c7d-ab5f-44bc-a5e0-e5761a896314" xmlns:ns3="cc187c68-baab-4236-9dad-d06e77fa50de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797d5547cec383f26eb28c57ab0887a5" ns2:_="" ns3:_="">
     <xsd:import namespace="37c45c7d-ab5f-44bc-a5e0-e5761a896314"/>
@@ -1325,32 +1341,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3BCDE7-4E5B-47E2-8163-201B8FF8D937}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cc187c68-baab-4236-9dad-d06e77fa50de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37c45c7d-ab5f-44bc-a5e0-e5761a896314"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF9D036-0713-4B79-81DF-2FB8ED7C4D26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37c45c7d-ab5f-44bc-a5e0-e5761a896314">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cc187c68-baab-4236-9dad-d06e77fa50de" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1FD34A-5E89-4319-8C0E-D24CAED08736}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1367,4 +1378,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF9D036-0713-4B79-81DF-2FB8ED7C4D26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3BCDE7-4E5B-47E2-8163-201B8FF8D937}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="37c45c7d-ab5f-44bc-a5e0-e5761a896314"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc187c68-baab-4236-9dad-d06e77fa50de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>